--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.283888</v>
+        <v>0.3986426666666667</v>
       </c>
       <c r="H2">
-        <v>0.8516640000000001</v>
+        <v>1.195928</v>
       </c>
       <c r="I2">
-        <v>0.0007936627692614525</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="J2">
-        <v>0.0007936627692614524</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05504633333333334</v>
+        <v>0.2016686666666666</v>
       </c>
       <c r="N2">
-        <v>0.165139</v>
+        <v>0.6050059999999999</v>
       </c>
       <c r="O2">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="P2">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="Q2">
-        <v>0.01562699347733333</v>
+        <v>0.08039373506311111</v>
       </c>
       <c r="R2">
-        <v>0.140642941296</v>
+        <v>0.723543615568</v>
       </c>
       <c r="S2">
-        <v>1.882146938835379E-06</v>
+        <v>1.015648169928029E-05</v>
       </c>
       <c r="T2">
-        <v>1.882146938835379E-06</v>
+        <v>1.015648169928029E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.283888</v>
+        <v>0.3986426666666667</v>
       </c>
       <c r="H3">
-        <v>0.8516640000000001</v>
+        <v>1.195928</v>
       </c>
       <c r="I3">
-        <v>0.0007936627692614525</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="J3">
-        <v>0.0007936627692614524</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.049737</v>
       </c>
       <c r="O3">
-        <v>0.04379557735662424</v>
+        <v>0.06243686167646252</v>
       </c>
       <c r="P3">
-        <v>0.04379557735662425</v>
+        <v>0.06243686167646253</v>
       </c>
       <c r="Q3">
-        <v>0.288594579152</v>
+        <v>0.4052517634373333</v>
       </c>
       <c r="R3">
-        <v>2.597351212368</v>
+        <v>3.647265870936</v>
       </c>
       <c r="S3">
-        <v>3.475891920626255E-05</v>
+        <v>5.119717495052607E-05</v>
       </c>
       <c r="T3">
-        <v>3.475891920626256E-05</v>
+        <v>5.119717495052608E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.283888</v>
+        <v>0.3986426666666667</v>
       </c>
       <c r="H4">
-        <v>0.8516640000000001</v>
+        <v>1.195928</v>
       </c>
       <c r="I4">
-        <v>0.0007936627692614525</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="J4">
-        <v>0.0007936627692614524</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.671405</v>
+        <v>12.55499933333333</v>
       </c>
       <c r="N4">
-        <v>26.014215</v>
+        <v>37.664998</v>
       </c>
       <c r="O4">
-        <v>0.3735756773139306</v>
+        <v>0.7711105154871511</v>
       </c>
       <c r="P4">
-        <v>0.3735756773139306</v>
+        <v>0.771110515487151</v>
       </c>
       <c r="Q4">
-        <v>2.46170782264</v>
+        <v>5.004958414238223</v>
       </c>
       <c r="R4">
-        <v>22.15537040376</v>
+        <v>45.044625728144</v>
       </c>
       <c r="S4">
-        <v>0.0002964931065856969</v>
+        <v>0.0006322976348836686</v>
       </c>
       <c r="T4">
-        <v>0.0002964931065856969</v>
+        <v>0.0006322976348836685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.283888</v>
+        <v>0.3986426666666667</v>
       </c>
       <c r="H5">
-        <v>0.8516640000000001</v>
+        <v>1.195928</v>
       </c>
       <c r="I5">
-        <v>0.0007936627692614525</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="J5">
-        <v>0.0007936627692614524</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5509396666666667</v>
+        <v>0.7471930000000001</v>
       </c>
       <c r="N5">
-        <v>1.652819</v>
+        <v>2.241579</v>
       </c>
       <c r="O5">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="P5">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="Q5">
-        <v>0.1564051600906667</v>
+        <v>0.2978630100346668</v>
       </c>
       <c r="R5">
-        <v>1.407646440816</v>
+        <v>2.680767090312</v>
       </c>
       <c r="S5">
-        <v>1.883775620113331E-05</v>
+        <v>3.763029803174021E-05</v>
       </c>
       <c r="T5">
-        <v>1.88377562011333E-05</v>
+        <v>3.763029803174021E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.283888</v>
+        <v>0.3986426666666667</v>
       </c>
       <c r="H6">
-        <v>0.8516640000000001</v>
+        <v>1.195928</v>
       </c>
       <c r="I6">
-        <v>0.0007936627692614525</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="J6">
-        <v>0.0007936627692614524</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.91794</v>
+        <v>1.761272</v>
       </c>
       <c r="N6">
-        <v>38.75382</v>
+        <v>5.283816</v>
       </c>
       <c r="O6">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="P6">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="Q6">
-        <v>3.667248150720001</v>
+        <v>0.7021181668053333</v>
       </c>
       <c r="R6">
-        <v>33.00523335648001</v>
+        <v>6.319063501248</v>
       </c>
       <c r="S6">
-        <v>0.0004416908403295242</v>
+        <v>8.87015674329914E-05</v>
       </c>
       <c r="T6">
-        <v>0.0004416908403295242</v>
+        <v>8.87015674329914E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>0.73316</v>
       </c>
       <c r="I7">
-        <v>0.0006832292968961075</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="J7">
-        <v>0.0006832292968961073</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.05504633333333334</v>
+        <v>0.2016686666666666</v>
       </c>
       <c r="N7">
-        <v>0.165139</v>
+        <v>0.6050059999999999</v>
       </c>
       <c r="O7">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="P7">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="Q7">
-        <v>0.01345258991555556</v>
+        <v>0.04928513321777777</v>
       </c>
       <c r="R7">
-        <v>0.12107330924</v>
+        <v>0.44356619896</v>
       </c>
       <c r="S7">
-        <v>1.620257342891735E-06</v>
+        <v>6.226400019603469E-06</v>
       </c>
       <c r="T7">
-        <v>1.620257342891735E-06</v>
+        <v>6.226400019603469E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.73316</v>
       </c>
       <c r="I8">
-        <v>0.0006832292968961075</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="J8">
-        <v>0.0006832292968961073</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.049737</v>
       </c>
       <c r="O8">
-        <v>0.04379557735662424</v>
+        <v>0.06243686167646252</v>
       </c>
       <c r="P8">
-        <v>0.04379557735662425</v>
+        <v>0.06243686167646253</v>
       </c>
       <c r="Q8">
         <v>0.2484383532133333</v>
@@ -948,10 +948,10 @@
         <v>2.23594517892</v>
       </c>
       <c r="S8">
-        <v>2.992242152452547E-05</v>
+        <v>3.138627140323472E-05</v>
       </c>
       <c r="T8">
-        <v>2.992242152452547E-05</v>
+        <v>3.138627140323473E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.73316</v>
       </c>
       <c r="I9">
-        <v>0.0006832292968961075</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="J9">
-        <v>0.0006832292968961073</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.671405</v>
+        <v>12.55499933333333</v>
       </c>
       <c r="N9">
-        <v>26.014215</v>
+        <v>37.664998</v>
       </c>
       <c r="O9">
-        <v>0.3735756773139306</v>
+        <v>0.7711105154871511</v>
       </c>
       <c r="P9">
-        <v>0.3735756773139306</v>
+        <v>0.771110515487151</v>
       </c>
       <c r="Q9">
-        <v>2.119175763266667</v>
+        <v>3.068274437075555</v>
       </c>
       <c r="R9">
-        <v>19.0725818694</v>
+        <v>27.61446993368</v>
       </c>
       <c r="S9">
-        <v>0.0002552378473486839</v>
+        <v>0.0003876281297798116</v>
       </c>
       <c r="T9">
-        <v>0.0002552378473486839</v>
+        <v>0.0003876281297798115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.73316</v>
       </c>
       <c r="I10">
-        <v>0.0006832292968961075</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="J10">
-        <v>0.0006832292968961073</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5509396666666667</v>
+        <v>0.7471930000000001</v>
       </c>
       <c r="N10">
-        <v>1.652819</v>
+        <v>2.241579</v>
       </c>
       <c r="O10">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="P10">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="Q10">
-        <v>0.1346423086711111</v>
+        <v>0.1826040066266667</v>
       </c>
       <c r="R10">
-        <v>1.21178077804</v>
+        <v>1.64343605964</v>
       </c>
       <c r="S10">
-        <v>1.621659402818822E-05</v>
+        <v>2.306913903257609E-05</v>
       </c>
       <c r="T10">
-        <v>1.621659402818822E-05</v>
+        <v>2.306913903257609E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.73316</v>
       </c>
       <c r="I11">
-        <v>0.0006832292968961075</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="J11">
-        <v>0.0006832292968961073</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.91794</v>
+        <v>1.761272</v>
       </c>
       <c r="N11">
-        <v>38.75382</v>
+        <v>5.283816</v>
       </c>
       <c r="O11">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="P11">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="Q11">
-        <v>3.1569722968</v>
+        <v>0.4304313931733333</v>
       </c>
       <c r="R11">
-        <v>28.4127506712</v>
+        <v>3.87388253856</v>
       </c>
       <c r="S11">
-        <v>0.0003802321766518181</v>
+        <v>5.437822442418939E-05</v>
       </c>
       <c r="T11">
-        <v>0.000380232176651818</v>
+        <v>5.437822442418939E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.42549866666667</v>
+        <v>365.9520313333333</v>
       </c>
       <c r="H12">
-        <v>259.276496</v>
+        <v>1097.856094</v>
       </c>
       <c r="I12">
-        <v>0.2416188800040461</v>
+        <v>0.7527405545215428</v>
       </c>
       <c r="J12">
-        <v>0.241618880004046</v>
+        <v>0.7527405545215429</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.05504633333333334</v>
+        <v>0.2016686666666666</v>
       </c>
       <c r="N12">
-        <v>0.165139</v>
+        <v>0.6050059999999999</v>
       </c>
       <c r="O12">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="P12">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="Q12">
-        <v>4.757406808104889</v>
+        <v>73.80105822295154</v>
       </c>
       <c r="R12">
-        <v>42.816661272944</v>
+        <v>664.2095240065639</v>
       </c>
       <c r="S12">
-        <v>0.0005729917705319979</v>
+        <v>0.009323600858207468</v>
       </c>
       <c r="T12">
-        <v>0.0005729917705319978</v>
+        <v>0.00932360085820747</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.42549866666667</v>
+        <v>365.9520313333333</v>
       </c>
       <c r="H13">
-        <v>259.276496</v>
+        <v>1097.856094</v>
       </c>
       <c r="I13">
-        <v>0.2416188800040461</v>
+        <v>0.7527405545215428</v>
       </c>
       <c r="J13">
-        <v>0.241618880004046</v>
+        <v>0.7527405545215429</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.049737</v>
       </c>
       <c r="O13">
-        <v>0.04379557735662424</v>
+        <v>0.06243686167646252</v>
       </c>
       <c r="P13">
-        <v>0.04379557735662425</v>
+        <v>0.06243686167646253</v>
       </c>
       <c r="Q13">
-        <v>87.85834700906133</v>
+        <v>372.0191500608086</v>
       </c>
       <c r="R13">
-        <v>790.7251230815521</v>
+        <v>3348.172350547278</v>
       </c>
       <c r="S13">
-        <v>0.01058183835003811</v>
+        <v>0.04699875788092526</v>
       </c>
       <c r="T13">
-        <v>0.01058183835003811</v>
+        <v>0.04699875788092527</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>86.42549866666667</v>
+        <v>365.9520313333333</v>
       </c>
       <c r="H14">
-        <v>259.276496</v>
+        <v>1097.856094</v>
       </c>
       <c r="I14">
-        <v>0.2416188800040461</v>
+        <v>0.7527405545215428</v>
       </c>
       <c r="J14">
-        <v>0.241618880004046</v>
+        <v>0.7527405545215429</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.671405</v>
+        <v>12.55499933333333</v>
       </c>
       <c r="N14">
-        <v>26.014215</v>
+        <v>37.664998</v>
       </c>
       <c r="O14">
-        <v>0.3735756773139306</v>
+        <v>0.7711105154871511</v>
       </c>
       <c r="P14">
-        <v>0.3735756773139306</v>
+        <v>0.771110515487151</v>
       </c>
       <c r="Q14">
-        <v>749.4305012656267</v>
+        <v>4594.527509421979</v>
       </c>
       <c r="R14">
-        <v>6744.874511390641</v>
+        <v>41350.74758479781</v>
       </c>
       <c r="S14">
-        <v>0.09026293674934484</v>
+        <v>0.5804461570251909</v>
       </c>
       <c r="T14">
-        <v>0.09026293674934482</v>
+        <v>0.5804461570251909</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>86.42549866666667</v>
+        <v>365.9520313333333</v>
       </c>
       <c r="H15">
-        <v>259.276496</v>
+        <v>1097.856094</v>
       </c>
       <c r="I15">
-        <v>0.2416188800040461</v>
+        <v>0.7527405545215428</v>
       </c>
       <c r="J15">
-        <v>0.241618880004046</v>
+        <v>0.7527405545215429</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5509396666666667</v>
+        <v>0.7471930000000001</v>
       </c>
       <c r="N15">
-        <v>1.652819</v>
+        <v>2.241579</v>
       </c>
       <c r="O15">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="P15">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="Q15">
-        <v>47.61523542691378</v>
+        <v>273.4367961480473</v>
       </c>
       <c r="R15">
-        <v>428.537118842224</v>
+        <v>2460.931165332426</v>
       </c>
       <c r="S15">
-        <v>0.005734875984346074</v>
+        <v>0.03454443077943002</v>
       </c>
       <c r="T15">
-        <v>0.005734875984346073</v>
+        <v>0.03454443077943003</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>86.42549866666667</v>
+        <v>365.9520313333333</v>
       </c>
       <c r="H16">
-        <v>259.276496</v>
+        <v>1097.856094</v>
       </c>
       <c r="I16">
-        <v>0.2416188800040461</v>
+        <v>0.7527405545215428</v>
       </c>
       <c r="J16">
-        <v>0.241618880004046</v>
+        <v>0.7527405545215429</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.91794</v>
+        <v>1.761272</v>
       </c>
       <c r="N16">
-        <v>38.75382</v>
+        <v>5.283816</v>
       </c>
       <c r="O16">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="P16">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="Q16">
-        <v>1116.43940624608</v>
+        <v>644.5410661305226</v>
       </c>
       <c r="R16">
-        <v>10047.95465621472</v>
+        <v>5800.869595174704</v>
       </c>
       <c r="S16">
-        <v>0.134466237149785</v>
+        <v>0.08142760797778924</v>
       </c>
       <c r="T16">
-        <v>0.134466237149785</v>
+        <v>0.08142760797778925</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06768933333333334</v>
+        <v>0.08320699999999999</v>
       </c>
       <c r="H17">
-        <v>0.203068</v>
+        <v>0.249621</v>
       </c>
       <c r="I17">
-        <v>0.000189238374791449</v>
+        <v>0.000171151620860996</v>
       </c>
       <c r="J17">
-        <v>0.000189238374791449</v>
+        <v>0.0001711516208609961</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.05504633333333334</v>
+        <v>0.2016686666666666</v>
       </c>
       <c r="N17">
-        <v>0.165139</v>
+        <v>0.6050059999999999</v>
       </c>
       <c r="O17">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="P17">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="Q17">
-        <v>0.003726049605777778</v>
+        <v>0.01678024474733333</v>
       </c>
       <c r="R17">
-        <v>0.033534446452</v>
+        <v>0.151022202726</v>
       </c>
       <c r="S17">
-        <v>4.487730074013024E-07</v>
+        <v>2.119919525469798E-06</v>
       </c>
       <c r="T17">
-        <v>4.487730074013024E-07</v>
+        <v>2.119919525469799E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.06768933333333334</v>
+        <v>0.08320699999999999</v>
       </c>
       <c r="H18">
-        <v>0.203068</v>
+        <v>0.249621</v>
       </c>
       <c r="I18">
-        <v>0.000189238374791449</v>
+        <v>0.000171151620860996</v>
       </c>
       <c r="J18">
-        <v>0.000189238374791449</v>
+        <v>0.0001711516208609961</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.049737</v>
       </c>
       <c r="O18">
-        <v>0.04379557735662424</v>
+        <v>0.06243686167646252</v>
       </c>
       <c r="P18">
-        <v>0.04379557735662425</v>
+        <v>0.06243686167646253</v>
       </c>
       <c r="Q18">
-        <v>0.06881155479066667</v>
+        <v>0.08458648885299998</v>
       </c>
       <c r="R18">
-        <v>0.6193039931159999</v>
+        <v>0.761278399677</v>
       </c>
       <c r="S18">
-        <v>8.287803882020755E-06</v>
+        <v>1.068617007740037E-05</v>
       </c>
       <c r="T18">
-        <v>8.287803882020755E-06</v>
+        <v>1.068617007740037E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.06768933333333334</v>
+        <v>0.08320699999999999</v>
       </c>
       <c r="H19">
-        <v>0.203068</v>
+        <v>0.249621</v>
       </c>
       <c r="I19">
-        <v>0.000189238374791449</v>
+        <v>0.000171151620860996</v>
       </c>
       <c r="J19">
-        <v>0.000189238374791449</v>
+        <v>0.0001711516208609961</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.671405</v>
+        <v>12.55499933333333</v>
       </c>
       <c r="N19">
-        <v>26.014215</v>
+        <v>37.664998</v>
       </c>
       <c r="O19">
-        <v>0.3735756773139306</v>
+        <v>0.7711105154871511</v>
       </c>
       <c r="P19">
-        <v>0.3735756773139306</v>
+        <v>0.771110515487151</v>
       </c>
       <c r="Q19">
-        <v>0.5869616235133334</v>
+        <v>1.044663829528667</v>
       </c>
       <c r="R19">
-        <v>5.28265461162</v>
+        <v>9.401974465757998</v>
       </c>
       <c r="S19">
-        <v>7.069485403650301E-05</v>
+        <v>0.0001319768145885841</v>
       </c>
       <c r="T19">
-        <v>7.0694854036503E-05</v>
+        <v>0.0001319768145885841</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.06768933333333334</v>
+        <v>0.08320699999999999</v>
       </c>
       <c r="H20">
-        <v>0.203068</v>
+        <v>0.249621</v>
       </c>
       <c r="I20">
-        <v>0.000189238374791449</v>
+        <v>0.000171151620860996</v>
       </c>
       <c r="J20">
-        <v>0.000189238374791449</v>
+        <v>0.0001711516208609961</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5509396666666667</v>
+        <v>0.7471930000000001</v>
       </c>
       <c r="N20">
-        <v>1.652819</v>
+        <v>2.241579</v>
       </c>
       <c r="O20">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="P20">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="Q20">
-        <v>0.03729273874355556</v>
+        <v>0.062171687951</v>
       </c>
       <c r="R20">
-        <v>0.335634648692</v>
+        <v>0.5595451915590001</v>
       </c>
       <c r="S20">
-        <v>4.491613448791705E-06</v>
+        <v>7.854413162816676E-06</v>
       </c>
       <c r="T20">
-        <v>4.491613448791703E-06</v>
+        <v>7.854413162816678E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.06768933333333334</v>
+        <v>0.08320699999999999</v>
       </c>
       <c r="H21">
-        <v>0.203068</v>
+        <v>0.249621</v>
       </c>
       <c r="I21">
-        <v>0.000189238374791449</v>
+        <v>0.000171151620860996</v>
       </c>
       <c r="J21">
-        <v>0.000189238374791449</v>
+        <v>0.0001711516208609961</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.91794</v>
+        <v>1.761272</v>
       </c>
       <c r="N21">
-        <v>38.75382</v>
+        <v>5.283816</v>
       </c>
       <c r="O21">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="P21">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="Q21">
-        <v>0.8744067466400002</v>
+        <v>0.146550159304</v>
       </c>
       <c r="R21">
-        <v>7.869660719760001</v>
+        <v>1.318951433736</v>
       </c>
       <c r="S21">
-        <v>0.0001053153304167322</v>
+        <v>1.851430350672511E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001053153304167322</v>
+        <v>1.851430350672511E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>270.67202</v>
+        <v>119.4813116666667</v>
       </c>
       <c r="H22">
-        <v>812.01606</v>
+        <v>358.443935</v>
       </c>
       <c r="I22">
-        <v>0.7567149895550049</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="J22">
-        <v>0.7567149895550048</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.05504633333333334</v>
+        <v>0.2016686666666666</v>
       </c>
       <c r="N22">
-        <v>0.165139</v>
+        <v>0.6050059999999999</v>
       </c>
       <c r="O22">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="P22">
-        <v>0.002371469359192472</v>
+        <v>0.01238620770755966</v>
       </c>
       <c r="Q22">
-        <v>14.89950223692667</v>
+        <v>24.09563681540111</v>
       </c>
       <c r="R22">
-        <v>134.09552013234</v>
+        <v>216.86073133861</v>
       </c>
       <c r="S22">
-        <v>0.001794526411371346</v>
+        <v>0.003044104048107841</v>
       </c>
       <c r="T22">
-        <v>0.001794526411371345</v>
+        <v>0.003044104048107841</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>270.67202</v>
+        <v>119.4813116666667</v>
       </c>
       <c r="H23">
-        <v>812.01606</v>
+        <v>358.443935</v>
       </c>
       <c r="I23">
-        <v>0.7567149895550049</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="J23">
-        <v>0.7567149895550048</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.049737</v>
       </c>
       <c r="O23">
-        <v>0.04379557735662424</v>
+        <v>0.06243686167646252</v>
       </c>
       <c r="P23">
-        <v>0.04379557735662425</v>
+        <v>0.06243686167646253</v>
       </c>
       <c r="Q23">
-        <v>275.15949141958</v>
+        <v>121.4621923327883</v>
       </c>
       <c r="R23">
-        <v>2476.43542277622</v>
+        <v>1093.159730995095</v>
       </c>
       <c r="S23">
-        <v>0.03314076986197332</v>
+        <v>0.01534483417910609</v>
       </c>
       <c r="T23">
-        <v>0.03314076986197332</v>
+        <v>0.0153448341791061</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>270.67202</v>
+        <v>119.4813116666667</v>
       </c>
       <c r="H24">
-        <v>812.01606</v>
+        <v>358.443935</v>
       </c>
       <c r="I24">
-        <v>0.7567149895550049</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="J24">
-        <v>0.7567149895550048</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.671405</v>
+        <v>12.55499933333333</v>
       </c>
       <c r="N24">
-        <v>26.014215</v>
+        <v>37.664998</v>
       </c>
       <c r="O24">
-        <v>0.3735756773139306</v>
+        <v>0.7711105154871511</v>
       </c>
       <c r="P24">
-        <v>0.3735756773139306</v>
+        <v>0.771110515487151</v>
       </c>
       <c r="Q24">
-        <v>2347.1067075881</v>
+        <v>1500.087788320792</v>
       </c>
       <c r="R24">
-        <v>21123.9603682929</v>
+        <v>13500.79009488713</v>
       </c>
       <c r="S24">
-        <v>0.2826903147566149</v>
+        <v>0.1895124558827082</v>
       </c>
       <c r="T24">
-        <v>0.2826903147566148</v>
+        <v>0.1895124558827082</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>270.67202</v>
+        <v>119.4813116666667</v>
       </c>
       <c r="H25">
-        <v>812.01606</v>
+        <v>358.443935</v>
       </c>
       <c r="I25">
-        <v>0.7567149895550049</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="J25">
-        <v>0.7567149895550048</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5509396666666667</v>
+        <v>0.7471930000000001</v>
       </c>
       <c r="N25">
-        <v>1.652819</v>
+        <v>2.241579</v>
       </c>
       <c r="O25">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="P25">
-        <v>0.02373521466637888</v>
+        <v>0.04589154997951076</v>
       </c>
       <c r="Q25">
-        <v>149.1239524747934</v>
+        <v>89.27559970815169</v>
       </c>
       <c r="R25">
-        <v>1342.11557227314</v>
+        <v>803.4803973733651</v>
       </c>
       <c r="S25">
-        <v>0.0179607927183547</v>
+        <v>0.0112785653498536</v>
       </c>
       <c r="T25">
-        <v>0.01796079271835469</v>
+        <v>0.0112785653498536</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>270.67202</v>
+        <v>119.4813116666667</v>
       </c>
       <c r="H26">
-        <v>812.01606</v>
+        <v>358.443935</v>
       </c>
       <c r="I26">
-        <v>0.7567149895550049</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="J26">
-        <v>0.7567149895550048</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.91794</v>
+        <v>1.761272</v>
       </c>
       <c r="N26">
-        <v>38.75382</v>
+        <v>5.283816</v>
       </c>
       <c r="O26">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="P26">
-        <v>0.5565220613038737</v>
+        <v>0.108174865149316</v>
       </c>
       <c r="Q26">
-        <v>3496.524914038801</v>
+        <v>210.4390887617733</v>
       </c>
       <c r="R26">
-        <v>31468.7242263492</v>
+        <v>1893.95179885596</v>
       </c>
       <c r="S26">
-        <v>0.4211285858066906</v>
+        <v>0.02658566307616285</v>
       </c>
       <c r="T26">
-        <v>0.4211285858066905</v>
+        <v>0.02658566307616285</v>
       </c>
     </row>
   </sheetData>
